--- a/data/trans_dic/P20B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P20B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,95%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>16,28; 37,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>20,26; 38,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>18,09; 42,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>24,2; 45,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>23,64; 40,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>21,54; 37,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>26,63; 48,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>16,21; 34,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>23,08; 37,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>23,03; 35,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>25,99; 41,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>22,59; 36,48</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,79%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>10,85; 34,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>22,68; 43,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>30,63; 52,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>25,72; 44,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>7,2; 20,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>15,63; 28,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>17,21; 32,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>17,17; 32,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>9,93; 20,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>19,77; 31,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>24,81; 36,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>23,31; 35,26</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,23%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>17,94; 61,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 59,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>3,86; 38,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>16,47; 47,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>2,96; 28,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>9,97; 35,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,0; 15,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>8,57; 27,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>12,52; 36,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>11,45; 35,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>2,87; 18,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>14,83; 31,54</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,51%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>19,75; 33,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>22,72; 36,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>26,65; 42,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>26,97; 39,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>15,55; 25,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>20,11; 29,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>19,59; 30,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>17,97; 27,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>18,4; 26,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>22,67; 30,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>23,57; 32,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>23,5; 32,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>28,9%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,2; 45,66</t>
+          <t>24,05; 45,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,21; 34,09</t>
+          <t>16,18; 34,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,59; 36,48</t>
+          <t>22,59; 36,58</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>29,03%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,72; 44,73</t>
+          <t>25,97; 44,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 32,23</t>
+          <t>17,39; 32,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,31; 35,26</t>
+          <t>23,4; 35,41</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>22,65%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 47,26</t>
+          <t>16,19; 47,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 27,36</t>
+          <t>9,07; 28,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,83; 31,54</t>
+          <t>15,15; 31,98</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>27,71%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,97; 39,56</t>
+          <t>26,8; 39,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,97; 27,98</t>
+          <t>18,2; 28,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,5; 32,06</t>
+          <t>23,67; 32,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 37,78</t>
+          <t>16,48; 37,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 38,47</t>
+          <t>19,24; 38,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,09; 42,8</t>
+          <t>18,44; 42,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,05; 45,31</t>
+          <t>23,02; 45,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,64; 40,64</t>
+          <t>22,78; 41,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,54; 37,29</t>
+          <t>21,15; 37,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,63; 48,75</t>
+          <t>26,3; 49,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 34,03</t>
+          <t>16,14; 32,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,08; 37,02</t>
+          <t>23,44; 36,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,03; 35,36</t>
+          <t>23,15; 35,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,99; 41,99</t>
+          <t>26,47; 42,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,59; 36,58</t>
+          <t>22,17; 36,41</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 34,84</t>
+          <t>11,85; 35,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,68; 43,0</t>
+          <t>23,47; 42,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,63; 52,54</t>
+          <t>31,39; 53,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,97; 44,85</t>
+          <t>25,03; 44,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 20,23</t>
+          <t>7,04; 18,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 28,68</t>
+          <t>15,17; 29,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 32,08</t>
+          <t>16,49; 32,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 32,3</t>
+          <t>17,95; 33,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 20,32</t>
+          <t>9,86; 20,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,77; 31,2</t>
+          <t>20,4; 30,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,81; 36,9</t>
+          <t>24,31; 36,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,4; 35,41</t>
+          <t>23,07; 35,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 61,04</t>
+          <t>17,99; 59,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,91</t>
+          <t>0,0; 62,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 38,61</t>
+          <t>3,8; 37,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 47,45</t>
+          <t>15,44; 46,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 28,94</t>
+          <t>2,97; 27,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,97; 35,87</t>
+          <t>10,94; 37,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,09</t>
+          <t>0,0; 13,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 28,38</t>
+          <t>9,57; 27,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 36,7</t>
+          <t>12,61; 35,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 35,41</t>
+          <t>11,15; 35,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 18,44</t>
+          <t>2,99; 17,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,15; 31,98</t>
+          <t>14,49; 33,45</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 33,9</t>
+          <t>18,86; 34,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,72; 36,18</t>
+          <t>23,29; 37,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,65; 42,15</t>
+          <t>26,16; 40,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,8; 39,67</t>
+          <t>26,91; 40,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 25,58</t>
+          <t>15,68; 25,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,11; 29,77</t>
+          <t>19,77; 29,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,59; 30,26</t>
+          <t>19,18; 29,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 28,18</t>
+          <t>18,11; 28,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,4; 26,81</t>
+          <t>18,3; 26,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,67; 30,05</t>
+          <t>22,63; 30,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,47</t>
+          <t>23,44; 32,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,67; 32,22</t>
+          <t>23,63; 31,93</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que estuvo en lista de espera por ingreso hospitalario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17222</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27823</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16390</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18745</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31813</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39271</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30215</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13497</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>49035</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>67094</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46605</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32242</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10894; 24867</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19084; 38670</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10214; 23514</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12797; 25147</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22888; 41617</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28515; 51109</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21671; 40687</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9032; 18440</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39036; 61590</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54177; 82775</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36474; 59121</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24729; 40620</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9567</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30112</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34025</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32819</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14231</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33958</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33414</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28491</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23798</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>64070</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>67440</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>61311</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5335; 16076</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22110; 39978</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25458; 43422</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23718; 41873</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8027; 21598</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24023; 46294</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23356; 45657</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20901; 38836</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15678; 33217</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>51509; 77890</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>54142; 81961</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>48734; 75260</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8374</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3092</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10712</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9034</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7689</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12488</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12126</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6353</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18401</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4110; 13620</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8567</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>988; 9719</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5712; 17116</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1006; 9452</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4528; 15560</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6310</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4236; 12389</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7149; 19901</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6130; 19660</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2134; 12553</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11776; 27180</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35163</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>61027</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>54751</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>62277</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>50158</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>82264</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>65647</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49677</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>85321</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>143291</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>120398</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>111954</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25274; 45688</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48223; 77139</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>42502; 66360</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50415; 75338</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38941; 62932</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>66124; 98443</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51703; 79847</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39236; 62506</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>69951; 102057</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>122549; 163842</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>101246; 140920</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>95483; 128996</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>